--- a/data/quadratcover.xlsx
+++ b/data/quadratcover.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="5911" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E416DF45-B165-4BAE-A783-02AF879F6B81}"/>
+  <xr:revisionPtr revIDLastSave="5914" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3656C6BA-1261-4D92-B20A-15670CBDBBD2}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,18 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="141">
   <si>
-    <t>QUADRAT</t>
+    <t>SITE.HABITAT.QUADRAT</t>
   </si>
   <si>
-    <t>TIMEPT</t>
+    <t>TIME</t>
   </si>
   <si>
     <t>SITE</t>
   </si>
   <si>
     <t>HABITAT</t>
+  </si>
+  <si>
+    <t>QUADRAT</t>
   </si>
   <si>
     <t>PT1</t>
@@ -829,11 +832,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P29" sqref="P29"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" customWidth="1"/>
@@ -855,144 +859,144 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:46">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1124,16 +1128,16 @@
     </row>
     <row r="3" spans="1:46">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
         <v>48</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1265,16 +1269,16 @@
     </row>
     <row r="4" spans="1:46">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1406,16 +1410,16 @@
     </row>
     <row r="5" spans="1:46">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1547,16 +1551,16 @@
     </row>
     <row r="6" spans="1:46">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1688,16 +1692,16 @@
     </row>
     <row r="7" spans="1:46">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1829,16 +1833,16 @@
     </row>
     <row r="8" spans="1:46">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1970,16 +1974,16 @@
     </row>
     <row r="9" spans="1:46">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -2111,16 +2115,16 @@
     </row>
     <row r="10" spans="1:46">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -2249,16 +2253,16 @@
     </row>
     <row r="11" spans="1:46">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -2390,16 +2394,16 @@
     </row>
     <row r="12" spans="1:46">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -2531,16 +2535,16 @@
     </row>
     <row r="13" spans="1:46">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -2672,16 +2676,16 @@
     </row>
     <row r="14" spans="1:46">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -2693,16 +2697,16 @@
     </row>
     <row r="15" spans="1:46">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -2714,16 +2718,16 @@
     </row>
     <row r="16" spans="1:46">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -2735,16 +2739,16 @@
     </row>
     <row r="17" spans="1:46">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2756,16 +2760,16 @@
     </row>
     <row r="18" spans="1:46">
       <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
         <v>64</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -2777,16 +2781,16 @@
     </row>
     <row r="19" spans="1:46">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -2798,16 +2802,16 @@
     </row>
     <row r="20" spans="1:46">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -2819,16 +2823,16 @@
     </row>
     <row r="21" spans="1:46">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -2840,16 +2844,16 @@
     </row>
     <row r="22" spans="1:46">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -2861,16 +2865,16 @@
     </row>
     <row r="23" spans="1:46">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <v>7</v>
@@ -2882,16 +2886,16 @@
     </row>
     <row r="24" spans="1:46">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>8</v>
@@ -2903,16 +2907,16 @@
     </row>
     <row r="25" spans="1:46">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <v>9</v>
@@ -2924,16 +2928,16 @@
     </row>
     <row r="26" spans="1:46">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -2945,16 +2949,16 @@
     </row>
     <row r="27" spans="1:46">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>11</v>
@@ -2966,16 +2970,16 @@
     </row>
     <row r="28" spans="1:46">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28">
         <v>12</v>
@@ -2987,16 +2991,16 @@
     </row>
     <row r="29" spans="1:46">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <v>13</v>
@@ -3008,16 +3012,16 @@
     </row>
     <row r="30" spans="1:46">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>14</v>
@@ -3029,16 +3033,16 @@
     </row>
     <row r="31" spans="1:46">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31">
         <v>15</v>
@@ -3050,16 +3054,16 @@
     </row>
     <row r="32" spans="1:46">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3191,16 +3195,16 @@
     </row>
     <row r="33" spans="1:46">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -3332,16 +3336,16 @@
     </row>
     <row r="34" spans="1:46">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -3473,16 +3477,16 @@
     </row>
     <row r="35" spans="1:46">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -3608,16 +3612,16 @@
     </row>
     <row r="36" spans="1:46">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -3749,16 +3753,16 @@
     </row>
     <row r="37" spans="1:46">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -3770,16 +3774,16 @@
     </row>
     <row r="38" spans="1:46">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E38">
         <v>7</v>
@@ -3911,16 +3915,16 @@
     </row>
     <row r="39" spans="1:46">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -4052,16 +4056,16 @@
     </row>
     <row r="40" spans="1:46">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>9</v>
@@ -4193,16 +4197,16 @@
     </row>
     <row r="41" spans="1:46">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E41">
         <v>10</v>
@@ -4334,16 +4338,16 @@
     </row>
     <row r="42" spans="1:46">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E42">
         <v>11</v>
@@ -4475,16 +4479,16 @@
     </row>
     <row r="43" spans="1:46">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E43">
         <v>12</v>
@@ -4616,16 +4620,16 @@
     </row>
     <row r="44" spans="1:46">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E44">
         <v>13</v>
@@ -4757,16 +4761,16 @@
     </row>
     <row r="45" spans="1:46">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E45">
         <v>14</v>
@@ -4898,16 +4902,16 @@
     </row>
     <row r="46" spans="1:46">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E46">
         <v>15</v>
@@ -5039,16 +5043,16 @@
     </row>
     <row r="47" spans="1:46">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -5180,16 +5184,16 @@
     </row>
     <row r="48" spans="1:46">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -5321,16 +5325,16 @@
     </row>
     <row r="49" spans="1:46">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -5462,16 +5466,16 @@
     </row>
     <row r="50" spans="1:46">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E50">
         <v>4</v>
@@ -5483,16 +5487,16 @@
     </row>
     <row r="51" spans="1:46">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -5504,16 +5508,16 @@
     </row>
     <row r="52" spans="1:46">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E52">
         <v>6</v>
@@ -5525,16 +5529,16 @@
     </row>
     <row r="53" spans="1:46">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E53">
         <v>7</v>
@@ -5546,16 +5550,16 @@
     </row>
     <row r="54" spans="1:46">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E54">
         <v>8</v>
@@ -5567,16 +5571,16 @@
     </row>
     <row r="55" spans="1:46">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E55">
         <v>9</v>
@@ -5588,16 +5592,16 @@
     </row>
     <row r="56" spans="1:46">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E56">
         <v>10</v>
@@ -5609,16 +5613,16 @@
     </row>
     <row r="57" spans="1:46">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E57">
         <v>11</v>
@@ -5630,16 +5634,16 @@
     </row>
     <row r="58" spans="1:46">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E58">
         <v>12</v>
@@ -5651,16 +5655,16 @@
     </row>
     <row r="59" spans="1:46">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E59">
         <v>13</v>
@@ -5672,16 +5676,16 @@
     </row>
     <row r="60" spans="1:46">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E60">
         <v>14</v>
@@ -5693,16 +5697,16 @@
     </row>
     <row r="61" spans="1:46">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E61">
         <v>15</v>
@@ -5714,16 +5718,16 @@
     </row>
     <row r="62" spans="1:46">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -5855,16 +5859,16 @@
     </row>
     <row r="63" spans="1:46">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -5996,16 +6000,16 @@
     </row>
     <row r="64" spans="1:46">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -6137,16 +6141,16 @@
     </row>
     <row r="65" spans="1:46">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E65">
         <v>4</v>
@@ -6278,16 +6282,16 @@
     </row>
     <row r="66" spans="1:46">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E66">
         <v>5</v>
@@ -6419,16 +6423,16 @@
     </row>
     <row r="67" spans="1:46">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E67">
         <v>6</v>
@@ -6560,16 +6564,16 @@
     </row>
     <row r="68" spans="1:46">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E68">
         <v>7</v>
@@ -6701,16 +6705,16 @@
     </row>
     <row r="69" spans="1:46">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E69">
         <v>8</v>
@@ -6842,16 +6846,16 @@
     </row>
     <row r="70" spans="1:46">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E70">
         <v>9</v>
@@ -6983,16 +6987,16 @@
     </row>
     <row r="71" spans="1:46">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E71">
         <v>10</v>
@@ -7124,16 +7128,16 @@
     </row>
     <row r="72" spans="1:46">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E72">
         <v>11</v>
@@ -7265,16 +7269,16 @@
     </row>
     <row r="73" spans="1:46">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E73">
         <v>12</v>
@@ -7406,16 +7410,16 @@
     </row>
     <row r="74" spans="1:46">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E74">
         <v>13</v>
@@ -7547,16 +7551,16 @@
     </row>
     <row r="75" spans="1:46">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E75">
         <v>14</v>
@@ -7568,16 +7572,16 @@
     </row>
     <row r="76" spans="1:46">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E76">
         <v>15</v>
@@ -7589,16 +7593,16 @@
     </row>
     <row r="77" spans="1:46">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -7730,16 +7734,16 @@
     </row>
     <row r="78" spans="1:46">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -7871,16 +7875,16 @@
     </row>
     <row r="79" spans="1:46">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E79">
         <v>3</v>
@@ -8012,16 +8016,16 @@
     </row>
     <row r="80" spans="1:46">
       <c r="A80" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -8153,16 +8157,16 @@
     </row>
     <row r="81" spans="1:46">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B81">
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -8294,16 +8298,16 @@
     </row>
     <row r="82" spans="1:46">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E82">
         <v>6</v>
@@ -8435,16 +8439,16 @@
     </row>
     <row r="83" spans="1:46">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E83">
         <v>7</v>
@@ -8576,16 +8580,16 @@
     </row>
     <row r="84" spans="1:46">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E84">
         <v>8</v>
@@ -8717,16 +8721,16 @@
     </row>
     <row r="85" spans="1:46">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E85">
         <v>9</v>
@@ -8858,16 +8862,16 @@
     </row>
     <row r="86" spans="1:46">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E86">
         <v>10</v>
@@ -8999,16 +9003,16 @@
     </row>
     <row r="87" spans="1:46">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B87">
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E87">
         <v>11</v>
@@ -9140,16 +9144,16 @@
     </row>
     <row r="88" spans="1:46">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E88">
         <v>12</v>
@@ -9281,16 +9285,16 @@
     </row>
     <row r="89" spans="1:46">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E89">
         <v>13</v>
@@ -9422,16 +9426,16 @@
     </row>
     <row r="90" spans="1:46">
       <c r="A90" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E90">
         <v>14</v>
@@ -9563,16 +9567,16 @@
     </row>
     <row r="91" spans="1:46">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B91">
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E91">
         <v>15</v>
@@ -9704,16 +9708,16 @@
     </row>
     <row r="92" spans="1:46">
       <c r="A92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B92">
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -9845,16 +9849,16 @@
     </row>
     <row r="93" spans="1:46">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B93">
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -9986,16 +9990,16 @@
     </row>
     <row r="94" spans="1:46">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B94">
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E94">
         <v>3</v>
@@ -10127,16 +10131,16 @@
     </row>
     <row r="95" spans="1:46">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B95">
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E95">
         <v>4</v>
@@ -10265,16 +10269,16 @@
     </row>
     <row r="96" spans="1:46">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B96">
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E96">
         <v>5</v>
@@ -10406,16 +10410,16 @@
     </row>
     <row r="97" spans="1:46">
       <c r="A97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B97">
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E97">
         <v>6</v>
@@ -10547,16 +10551,16 @@
     </row>
     <row r="98" spans="1:46">
       <c r="A98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E98">
         <v>7</v>
@@ -10688,16 +10692,16 @@
     </row>
     <row r="99" spans="1:46">
       <c r="A99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B99">
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E99">
         <v>8</v>
@@ -10829,16 +10833,16 @@
     </row>
     <row r="100" spans="1:46">
       <c r="A100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B100">
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E100">
         <v>9</v>
@@ -10970,16 +10974,16 @@
     </row>
     <row r="101" spans="1:46">
       <c r="A101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B101">
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E101">
         <v>10</v>
@@ -11111,16 +11115,16 @@
     </row>
     <row r="102" spans="1:46">
       <c r="A102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B102">
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E102">
         <v>11</v>
@@ -11252,16 +11256,16 @@
     </row>
     <row r="103" spans="1:46">
       <c r="A103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B103">
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E103">
         <v>12</v>
@@ -11393,16 +11397,16 @@
     </row>
     <row r="104" spans="1:46">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B104">
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E104">
         <v>13</v>
@@ -11534,16 +11538,16 @@
     </row>
     <row r="105" spans="1:46">
       <c r="A105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B105">
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E105">
         <v>14</v>
@@ -11555,16 +11559,16 @@
     </row>
     <row r="106" spans="1:46">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B106">
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E106">
         <v>15</v>
@@ -11576,16 +11580,16 @@
     </row>
     <row r="107" spans="1:46">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B107">
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -11597,16 +11601,16 @@
     </row>
     <row r="108" spans="1:46">
       <c r="A108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B108">
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -11618,16 +11622,16 @@
     </row>
     <row r="109" spans="1:46">
       <c r="A109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B109">
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E109">
         <v>3</v>
@@ -11639,16 +11643,16 @@
     </row>
     <row r="110" spans="1:46">
       <c r="A110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B110">
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E110">
         <v>4</v>
@@ -11660,16 +11664,16 @@
     </row>
     <row r="111" spans="1:46">
       <c r="A111" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B111">
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E111">
         <v>5</v>
@@ -11681,16 +11685,16 @@
     </row>
     <row r="112" spans="1:46">
       <c r="A112" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D112" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E112">
         <v>6</v>
@@ -11702,16 +11706,16 @@
     </row>
     <row r="113" spans="1:46">
       <c r="A113" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B113">
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D113" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E113">
         <v>7</v>
@@ -11843,16 +11847,16 @@
     </row>
     <row r="114" spans="1:46">
       <c r="A114" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B114">
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D114" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E114">
         <v>8</v>
@@ -11984,16 +11988,16 @@
     </row>
     <row r="115" spans="1:46">
       <c r="A115" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B115">
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D115" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E115">
         <v>9</v>
@@ -12125,16 +12129,16 @@
     </row>
     <row r="116" spans="1:46">
       <c r="A116" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B116">
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D116" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E116">
         <v>10</v>
@@ -12146,16 +12150,16 @@
     </row>
     <row r="117" spans="1:46">
       <c r="A117" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D117" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E117">
         <v>11</v>
@@ -12167,16 +12171,16 @@
     </row>
     <row r="118" spans="1:46">
       <c r="A118" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B118">
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D118" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E118">
         <v>12</v>
@@ -12188,16 +12192,16 @@
     </row>
     <row r="119" spans="1:46">
       <c r="A119" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B119">
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D119" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E119">
         <v>13</v>
@@ -12209,16 +12213,16 @@
     </row>
     <row r="120" spans="1:46">
       <c r="A120" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B120">
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D120" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E120">
         <v>14</v>
@@ -12230,16 +12234,16 @@
     </row>
     <row r="121" spans="1:46">
       <c r="A121" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B121">
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D121" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E121">
         <v>15</v>
@@ -12251,16 +12255,16 @@
     </row>
     <row r="122" spans="1:46">
       <c r="A122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B122">
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -12272,16 +12276,16 @@
     </row>
     <row r="123" spans="1:46">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B123">
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -12293,16 +12297,16 @@
     </row>
     <row r="124" spans="1:46">
       <c r="A124" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B124">
         <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E124">
         <v>3</v>
@@ -12314,16 +12318,16 @@
     </row>
     <row r="125" spans="1:46">
       <c r="A125" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B125">
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E125">
         <v>4</v>
@@ -12335,16 +12339,16 @@
     </row>
     <row r="126" spans="1:46">
       <c r="A126" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B126">
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E126">
         <v>5</v>
@@ -12356,16 +12360,16 @@
     </row>
     <row r="127" spans="1:46">
       <c r="A127" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B127">
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E127">
         <v>6</v>
@@ -12377,16 +12381,16 @@
     </row>
     <row r="128" spans="1:46">
       <c r="A128" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B128">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E128">
         <v>7</v>
@@ -12398,16 +12402,16 @@
     </row>
     <row r="129" spans="1:46">
       <c r="A129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E129">
         <v>8</v>
@@ -12419,16 +12423,16 @@
     </row>
     <row r="130" spans="1:46">
       <c r="A130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B130">
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E130">
         <v>9</v>
@@ -12440,16 +12444,16 @@
     </row>
     <row r="131" spans="1:46">
       <c r="A131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B131">
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E131">
         <v>10</v>
@@ -12461,16 +12465,16 @@
     </row>
     <row r="132" spans="1:46">
       <c r="A132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B132">
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E132">
         <v>11</v>
@@ -12482,16 +12486,16 @@
     </row>
     <row r="133" spans="1:46">
       <c r="A133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E133">
         <v>12</v>
@@ -12503,16 +12507,16 @@
     </row>
     <row r="134" spans="1:46">
       <c r="A134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B134">
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E134">
         <v>13</v>
@@ -12524,16 +12528,16 @@
     </row>
     <row r="135" spans="1:46">
       <c r="A135" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E135">
         <v>14</v>
@@ -12545,16 +12549,16 @@
     </row>
     <row r="136" spans="1:46">
       <c r="A136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B136">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E136">
         <v>15</v>
@@ -12566,16 +12570,16 @@
     </row>
     <row r="137" spans="1:46">
       <c r="A137" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B137">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D137" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -12587,16 +12591,16 @@
     </row>
     <row r="138" spans="1:46">
       <c r="A138" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B138">
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D138" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E138">
         <v>2</v>
@@ -12608,16 +12612,16 @@
     </row>
     <row r="139" spans="1:46">
       <c r="A139" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B139">
         <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D139" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E139">
         <v>3</v>
@@ -12629,16 +12633,16 @@
     </row>
     <row r="140" spans="1:46">
       <c r="A140" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B140">
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D140" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E140">
         <v>4</v>
@@ -12650,16 +12654,16 @@
     </row>
     <row r="141" spans="1:46">
       <c r="A141" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B141">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D141" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E141">
         <v>5</v>
@@ -12671,16 +12675,16 @@
     </row>
     <row r="142" spans="1:46">
       <c r="A142" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B142">
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E142">
         <v>6</v>
@@ -12692,16 +12696,16 @@
     </row>
     <row r="143" spans="1:46">
       <c r="A143" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B143">
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D143" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E143">
         <v>7</v>
@@ -12713,16 +12717,16 @@
     </row>
     <row r="144" spans="1:46">
       <c r="A144" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D144" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E144">
         <v>8</v>
@@ -12734,16 +12738,16 @@
     </row>
     <row r="145" spans="1:46">
       <c r="A145" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B145">
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D145" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E145">
         <v>9</v>
@@ -12755,16 +12759,16 @@
     </row>
     <row r="146" spans="1:46">
       <c r="A146" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B146">
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D146" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E146">
         <v>10</v>
@@ -12776,16 +12780,16 @@
     </row>
     <row r="147" spans="1:46">
       <c r="A147" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B147">
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D147" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E147">
         <v>11</v>
@@ -12797,16 +12801,16 @@
     </row>
     <row r="148" spans="1:46">
       <c r="A148" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B148">
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D148" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E148">
         <v>12</v>
@@ -12818,16 +12822,16 @@
     </row>
     <row r="149" spans="1:46">
       <c r="A149" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B149">
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D149" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E149">
         <v>13</v>
@@ -12839,16 +12843,16 @@
     </row>
     <row r="150" spans="1:46">
       <c r="A150" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B150">
         <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D150" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E150">
         <v>14</v>
@@ -12860,16 +12864,16 @@
     </row>
     <row r="151" spans="1:46">
       <c r="A151" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B151">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D151" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E151">
         <v>15</v>
@@ -12881,16 +12885,16 @@
     </row>
     <row r="152" spans="1:46">
       <c r="A152" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -13022,16 +13026,16 @@
     </row>
     <row r="153" spans="1:46">
       <c r="A153" t="s">
+        <v>81</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
         <v>80</v>
       </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153" t="s">
-        <v>79</v>
-      </c>
       <c r="D153" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E153">
         <v>2</v>
@@ -13163,16 +13167,16 @@
     </row>
     <row r="154" spans="1:46">
       <c r="A154" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E154">
         <v>3</v>
@@ -13304,16 +13308,16 @@
     </row>
     <row r="155" spans="1:46">
       <c r="A155" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E155">
         <v>4</v>
@@ -13445,16 +13449,16 @@
     </row>
     <row r="156" spans="1:46">
       <c r="A156" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E156">
         <v>5</v>
@@ -13586,16 +13590,16 @@
     </row>
     <row r="157" spans="1:46">
       <c r="A157" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E157">
         <v>6</v>
@@ -13727,16 +13731,16 @@
     </row>
     <row r="158" spans="1:46">
       <c r="A158" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E158">
         <v>7</v>
@@ -13868,16 +13872,16 @@
     </row>
     <row r="159" spans="1:46">
       <c r="A159" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E159">
         <v>8</v>
@@ -14009,16 +14013,16 @@
     </row>
     <row r="160" spans="1:46">
       <c r="A160" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E160">
         <v>9</v>
@@ -14150,16 +14154,16 @@
     </row>
     <row r="161" spans="1:46">
       <c r="A161" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E161">
         <v>10</v>
@@ -14291,16 +14295,16 @@
     </row>
     <row r="162" spans="1:46">
       <c r="A162" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E162">
         <v>11</v>
@@ -14432,16 +14436,16 @@
     </row>
     <row r="163" spans="1:46">
       <c r="A163" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D163" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E163">
         <v>12</v>
@@ -14573,16 +14577,16 @@
     </row>
     <row r="164" spans="1:46">
       <c r="A164" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E164">
         <v>13</v>
@@ -14714,16 +14718,16 @@
     </row>
     <row r="165" spans="1:46">
       <c r="A165" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E165">
         <v>14</v>
@@ -14855,16 +14859,16 @@
     </row>
     <row r="166" spans="1:46">
       <c r="A166" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D166" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E166">
         <v>15</v>
@@ -14996,16 +15000,16 @@
     </row>
     <row r="167" spans="1:46">
       <c r="A167" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D167" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -15017,16 +15021,16 @@
     </row>
     <row r="168" spans="1:46">
       <c r="A168" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D168" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E168">
         <v>2</v>
@@ -15038,16 +15042,16 @@
     </row>
     <row r="169" spans="1:46">
       <c r="A169" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D169" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E169">
         <v>3</v>
@@ -15059,16 +15063,16 @@
     </row>
     <row r="170" spans="1:46">
       <c r="A170" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D170" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E170">
         <v>4</v>
@@ -15080,16 +15084,16 @@
     </row>
     <row r="171" spans="1:46">
       <c r="A171" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D171" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E171">
         <v>5</v>
@@ -15101,16 +15105,16 @@
     </row>
     <row r="172" spans="1:46">
       <c r="A172" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D172" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E172">
         <v>6</v>
@@ -15122,16 +15126,16 @@
     </row>
     <row r="173" spans="1:46">
       <c r="A173" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D173" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E173">
         <v>7</v>
@@ -15143,16 +15147,16 @@
     </row>
     <row r="174" spans="1:46">
       <c r="A174" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D174" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E174">
         <v>8</v>
@@ -15164,16 +15168,16 @@
     </row>
     <row r="175" spans="1:46">
       <c r="A175" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D175" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E175">
         <v>9</v>
@@ -15185,16 +15189,16 @@
     </row>
     <row r="176" spans="1:46">
       <c r="A176" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D176" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E176">
         <v>10</v>
@@ -15206,16 +15210,16 @@
     </row>
     <row r="177" spans="1:46">
       <c r="A177" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D177" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E177">
         <v>11</v>
@@ -15227,16 +15231,16 @@
     </row>
     <row r="178" spans="1:46">
       <c r="A178" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D178" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E178">
         <v>12</v>
@@ -15248,16 +15252,16 @@
     </row>
     <row r="179" spans="1:46">
       <c r="A179" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D179" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E179">
         <v>13</v>
@@ -15269,16 +15273,16 @@
     </row>
     <row r="180" spans="1:46">
       <c r="A180" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D180" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E180">
         <v>14</v>
@@ -15290,16 +15294,16 @@
     </row>
     <row r="181" spans="1:46">
       <c r="A181" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D181" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E181">
         <v>15</v>
@@ -15311,16 +15315,16 @@
     </row>
     <row r="182" spans="1:46">
       <c r="A182" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B182">
         <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -15452,16 +15456,16 @@
     </row>
     <row r="183" spans="1:46">
       <c r="A183" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B183">
         <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E183">
         <v>2</v>
@@ -15593,16 +15597,16 @@
     </row>
     <row r="184" spans="1:46">
       <c r="A184" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B184">
         <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D184" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E184">
         <v>3</v>
@@ -15734,16 +15738,16 @@
     </row>
     <row r="185" spans="1:46">
       <c r="A185" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B185">
         <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D185" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E185">
         <v>4</v>
@@ -15875,16 +15879,16 @@
     </row>
     <row r="186" spans="1:46">
       <c r="A186" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B186">
         <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D186" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E186">
         <v>5</v>
@@ -16016,16 +16020,16 @@
     </row>
     <row r="187" spans="1:46">
       <c r="A187" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B187">
         <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E187">
         <v>6</v>
@@ -16157,16 +16161,16 @@
     </row>
     <row r="188" spans="1:46">
       <c r="A188" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B188">
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D188" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E188">
         <v>7</v>
@@ -16295,16 +16299,16 @@
     </row>
     <row r="189" spans="1:46">
       <c r="A189" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B189">
         <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D189" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E189">
         <v>8</v>
@@ -16436,16 +16440,16 @@
     </row>
     <row r="190" spans="1:46">
       <c r="A190" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B190">
         <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E190">
         <v>9</v>
@@ -16577,16 +16581,16 @@
     </row>
     <row r="191" spans="1:46">
       <c r="A191" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B191">
         <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D191" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E191">
         <v>10</v>
@@ -16718,16 +16722,16 @@
     </row>
     <row r="192" spans="1:46">
       <c r="A192" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B192">
         <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E192">
         <v>11</v>
@@ -16859,16 +16863,16 @@
     </row>
     <row r="193" spans="1:46">
       <c r="A193" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B193">
         <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D193" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E193">
         <v>12</v>
@@ -17000,16 +17004,16 @@
     </row>
     <row r="194" spans="1:46">
       <c r="A194" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B194">
         <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D194" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E194">
         <v>13</v>
@@ -17141,16 +17145,16 @@
     </row>
     <row r="195" spans="1:46">
       <c r="A195" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B195">
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D195" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E195">
         <v>14</v>
@@ -17282,16 +17286,16 @@
     </row>
     <row r="196" spans="1:46">
       <c r="A196" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B196">
         <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E196">
         <v>15</v>
@@ -17423,16 +17427,16 @@
     </row>
     <row r="197" spans="1:46">
       <c r="A197" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B197">
         <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D197" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -17564,16 +17568,16 @@
     </row>
     <row r="198" spans="1:46">
       <c r="A198" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B198">
         <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D198" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E198">
         <v>2</v>
@@ -17705,16 +17709,16 @@
     </row>
     <row r="199" spans="1:46">
       <c r="A199" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B199">
         <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D199" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E199">
         <v>3</v>
@@ -17846,16 +17850,16 @@
     </row>
     <row r="200" spans="1:46">
       <c r="A200" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B200">
         <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D200" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E200">
         <v>4</v>
@@ -17867,16 +17871,16 @@
     </row>
     <row r="201" spans="1:46">
       <c r="A201" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B201">
         <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D201" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E201">
         <v>5</v>
@@ -17888,16 +17892,16 @@
     </row>
     <row r="202" spans="1:46">
       <c r="A202" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B202">
         <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D202" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E202">
         <v>6</v>
@@ -17909,16 +17913,16 @@
     </row>
     <row r="203" spans="1:46">
       <c r="A203" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B203">
         <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D203" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E203">
         <v>7</v>
@@ -17930,16 +17934,16 @@
     </row>
     <row r="204" spans="1:46">
       <c r="A204" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B204">
         <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D204" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E204">
         <v>8</v>
@@ -17951,16 +17955,16 @@
     </row>
     <row r="205" spans="1:46">
       <c r="A205" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B205">
         <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D205" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E205">
         <v>9</v>
@@ -17972,16 +17976,16 @@
     </row>
     <row r="206" spans="1:46">
       <c r="A206" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B206">
         <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D206" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E206">
         <v>10</v>
@@ -17993,16 +17997,16 @@
     </row>
     <row r="207" spans="1:46">
       <c r="A207" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B207">
         <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D207" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E207">
         <v>11</v>
@@ -18014,16 +18018,16 @@
     </row>
     <row r="208" spans="1:46">
       <c r="A208" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B208">
         <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D208" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E208">
         <v>12</v>
@@ -18035,16 +18039,16 @@
     </row>
     <row r="209" spans="1:46">
       <c r="A209" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B209">
         <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D209" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E209">
         <v>13</v>
@@ -18056,16 +18060,16 @@
     </row>
     <row r="210" spans="1:46">
       <c r="A210" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B210">
         <v>2</v>
       </c>
       <c r="C210" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D210" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E210">
         <v>14</v>
@@ -18077,16 +18081,16 @@
     </row>
     <row r="211" spans="1:46">
       <c r="A211" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B211">
         <v>2</v>
       </c>
       <c r="C211" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D211" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E211">
         <v>15</v>
@@ -18098,16 +18102,16 @@
     </row>
     <row r="212" spans="1:46">
       <c r="A212" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B212">
         <v>3</v>
       </c>
       <c r="C212" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -18239,16 +18243,16 @@
     </row>
     <row r="213" spans="1:46">
       <c r="A213" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B213">
         <v>3</v>
       </c>
       <c r="C213" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E213">
         <v>2</v>
@@ -18380,16 +18384,16 @@
     </row>
     <row r="214" spans="1:46">
       <c r="A214" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B214">
         <v>3</v>
       </c>
       <c r="C214" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E214">
         <v>3</v>
@@ -18521,16 +18525,16 @@
     </row>
     <row r="215" spans="1:46">
       <c r="A215" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B215">
         <v>3</v>
       </c>
       <c r="C215" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D215" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E215">
         <v>4</v>
@@ -18662,16 +18666,16 @@
     </row>
     <row r="216" spans="1:46">
       <c r="A216" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B216">
         <v>3</v>
       </c>
       <c r="C216" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D216" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E216">
         <v>5</v>
@@ -18803,16 +18807,16 @@
     </row>
     <row r="217" spans="1:46">
       <c r="A217" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B217">
         <v>3</v>
       </c>
       <c r="C217" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D217" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E217">
         <v>6</v>
@@ -18944,16 +18948,16 @@
     </row>
     <row r="218" spans="1:46">
       <c r="A218" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B218">
         <v>3</v>
       </c>
       <c r="C218" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E218">
         <v>7</v>
@@ -19085,16 +19089,16 @@
     </row>
     <row r="219" spans="1:46">
       <c r="A219" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B219">
         <v>3</v>
       </c>
       <c r="C219" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D219" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E219">
         <v>8</v>
@@ -19226,16 +19230,16 @@
     </row>
     <row r="220" spans="1:46">
       <c r="A220" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B220">
         <v>3</v>
       </c>
       <c r="C220" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E220">
         <v>9</v>
@@ -19368,16 +19372,16 @@
     </row>
     <row r="221" spans="1:46">
       <c r="A221" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B221">
         <v>3</v>
       </c>
       <c r="C221" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D221" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E221">
         <v>10</v>
@@ -19509,16 +19513,16 @@
     </row>
     <row r="222" spans="1:46">
       <c r="A222" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B222">
         <v>3</v>
       </c>
       <c r="C222" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D222" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E222">
         <v>11</v>
@@ -19650,16 +19654,16 @@
     </row>
     <row r="223" spans="1:46">
       <c r="A223" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B223">
         <v>3</v>
       </c>
       <c r="C223" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D223" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E223">
         <v>12</v>
@@ -19791,16 +19795,16 @@
     </row>
     <row r="224" spans="1:46">
       <c r="A224" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B224">
         <v>3</v>
       </c>
       <c r="C224" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D224" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E224">
         <v>13</v>
@@ -19932,16 +19936,16 @@
     </row>
     <row r="225" spans="1:46">
       <c r="A225" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B225">
         <v>3</v>
       </c>
       <c r="C225" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E225">
         <v>14</v>
@@ -20073,16 +20077,16 @@
     </row>
     <row r="226" spans="1:46">
       <c r="A226" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B226">
         <v>3</v>
       </c>
       <c r="C226" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E226">
         <v>15</v>
@@ -20214,16 +20218,16 @@
     </row>
     <row r="227" spans="1:46">
       <c r="A227" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B227">
         <v>3</v>
       </c>
       <c r="C227" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D227" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -20355,16 +20359,16 @@
     </row>
     <row r="228" spans="1:46">
       <c r="A228" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B228">
         <v>3</v>
       </c>
       <c r="C228" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D228" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E228">
         <v>2</v>
@@ -20496,16 +20500,16 @@
     </row>
     <row r="229" spans="1:46">
       <c r="A229" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B229">
         <v>3</v>
       </c>
       <c r="C229" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D229" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E229">
         <v>3</v>
@@ -20517,16 +20521,16 @@
     </row>
     <row r="230" spans="1:46">
       <c r="A230" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B230">
         <v>3</v>
       </c>
       <c r="C230" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D230" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E230">
         <v>4</v>
@@ -20658,16 +20662,16 @@
     </row>
     <row r="231" spans="1:46">
       <c r="A231" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B231">
         <v>3</v>
       </c>
       <c r="C231" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D231" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E231">
         <v>5</v>
@@ -20799,16 +20803,16 @@
     </row>
     <row r="232" spans="1:46">
       <c r="A232" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B232">
         <v>3</v>
       </c>
       <c r="C232" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D232" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E232">
         <v>6</v>
@@ -20940,16 +20944,16 @@
     </row>
     <row r="233" spans="1:46">
       <c r="A233" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B233">
         <v>3</v>
       </c>
       <c r="C233" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D233" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E233">
         <v>7</v>
@@ -21081,16 +21085,16 @@
     </row>
     <row r="234" spans="1:46">
       <c r="A234" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B234">
         <v>3</v>
       </c>
       <c r="C234" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D234" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E234">
         <v>8</v>
@@ -21222,16 +21226,16 @@
     </row>
     <row r="235" spans="1:46">
       <c r="A235" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B235">
         <v>3</v>
       </c>
       <c r="C235" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D235" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E235">
         <v>9</v>
@@ -21363,16 +21367,16 @@
     </row>
     <row r="236" spans="1:46">
       <c r="A236" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B236">
         <v>3</v>
       </c>
       <c r="C236" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D236" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E236">
         <v>10</v>
@@ -21504,16 +21508,16 @@
     </row>
     <row r="237" spans="1:46">
       <c r="A237" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B237">
         <v>3</v>
       </c>
       <c r="C237" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D237" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E237">
         <v>11</v>
@@ -21645,16 +21649,16 @@
     </row>
     <row r="238" spans="1:46">
       <c r="A238" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B238">
         <v>3</v>
       </c>
       <c r="C238" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D238" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E238">
         <v>12</v>
@@ -21786,16 +21790,16 @@
     </row>
     <row r="239" spans="1:46">
       <c r="A239" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B239">
         <v>3</v>
       </c>
       <c r="C239" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D239" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E239">
         <v>13</v>
@@ -21927,16 +21931,16 @@
     </row>
     <row r="240" spans="1:46">
       <c r="A240" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B240">
         <v>3</v>
       </c>
       <c r="C240" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D240" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E240">
         <v>14</v>
@@ -22068,16 +22072,16 @@
     </row>
     <row r="241" spans="1:46">
       <c r="A241" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B241">
         <v>3</v>
       </c>
       <c r="C241" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D241" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E241">
         <v>15</v>
@@ -22209,16 +22213,16 @@
     </row>
     <row r="242" spans="1:46">
       <c r="A242" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B242">
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D242" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -22350,16 +22354,16 @@
     </row>
     <row r="243" spans="1:46">
       <c r="A243" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B243">
         <v>4</v>
       </c>
       <c r="C243" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D243" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E243">
         <v>2</v>
@@ -22491,16 +22495,16 @@
     </row>
     <row r="244" spans="1:46">
       <c r="A244" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B244">
         <v>4</v>
       </c>
       <c r="C244" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D244" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E244">
         <v>3</v>
@@ -22632,16 +22636,16 @@
     </row>
     <row r="245" spans="1:46">
       <c r="A245" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B245">
         <v>4</v>
       </c>
       <c r="C245" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D245" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E245">
         <v>4</v>
@@ -22773,16 +22777,16 @@
     </row>
     <row r="246" spans="1:46">
       <c r="A246" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B246">
         <v>4</v>
       </c>
       <c r="C246" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D246" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E246">
         <v>5</v>
@@ -22914,16 +22918,16 @@
     </row>
     <row r="247" spans="1:46">
       <c r="A247" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B247">
         <v>4</v>
       </c>
       <c r="C247" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D247" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E247">
         <v>6</v>
@@ -23055,16 +23059,16 @@
     </row>
     <row r="248" spans="1:46">
       <c r="A248" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B248">
         <v>4</v>
       </c>
       <c r="C248" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D248" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E248">
         <v>7</v>
@@ -23196,16 +23200,16 @@
     </row>
     <row r="249" spans="1:46">
       <c r="A249" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B249">
         <v>4</v>
       </c>
       <c r="C249" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D249" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E249">
         <v>8</v>
@@ -23337,16 +23341,16 @@
     </row>
     <row r="250" spans="1:46">
       <c r="A250" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B250">
         <v>4</v>
       </c>
       <c r="C250" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D250" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E250">
         <v>9</v>
@@ -23478,16 +23482,16 @@
     </row>
     <row r="251" spans="1:46">
       <c r="A251" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B251">
         <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D251" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E251">
         <v>10</v>
@@ -23619,16 +23623,16 @@
     </row>
     <row r="252" spans="1:46">
       <c r="A252" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B252">
         <v>4</v>
       </c>
       <c r="C252" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D252" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E252">
         <v>11</v>
@@ -23760,16 +23764,16 @@
     </row>
     <row r="253" spans="1:46">
       <c r="A253" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B253">
         <v>4</v>
       </c>
       <c r="C253" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D253" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E253">
         <v>12</v>
@@ -23901,16 +23905,16 @@
     </row>
     <row r="254" spans="1:46">
       <c r="A254" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B254">
         <v>4</v>
       </c>
       <c r="C254" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D254" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E254">
         <v>13</v>
@@ -24042,16 +24046,16 @@
     </row>
     <row r="255" spans="1:46">
       <c r="A255" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B255">
         <v>4</v>
       </c>
       <c r="C255" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D255" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E255">
         <v>14</v>
@@ -24183,16 +24187,16 @@
     </row>
     <row r="256" spans="1:46">
       <c r="A256" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B256">
         <v>4</v>
       </c>
       <c r="C256" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D256" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E256">
         <v>15</v>
@@ -24324,16 +24328,16 @@
     </row>
     <row r="257" spans="1:46">
       <c r="A257" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B257">
         <v>4</v>
       </c>
       <c r="C257" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D257" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -24345,16 +24349,16 @@
     </row>
     <row r="258" spans="1:46">
       <c r="A258" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B258">
         <v>4</v>
       </c>
       <c r="C258" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D258" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E258">
         <v>2</v>
@@ -24366,16 +24370,16 @@
     </row>
     <row r="259" spans="1:46">
       <c r="A259" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B259">
         <v>4</v>
       </c>
       <c r="C259" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D259" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E259">
         <v>3</v>
@@ -24387,16 +24391,16 @@
     </row>
     <row r="260" spans="1:46">
       <c r="A260" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B260">
         <v>4</v>
       </c>
       <c r="C260" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D260" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E260">
         <v>4</v>
@@ -24408,16 +24412,16 @@
     </row>
     <row r="261" spans="1:46">
       <c r="A261" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B261">
         <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D261" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E261">
         <v>5</v>
@@ -24429,16 +24433,16 @@
     </row>
     <row r="262" spans="1:46">
       <c r="A262" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B262">
         <v>4</v>
       </c>
       <c r="C262" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D262" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E262">
         <v>6</v>
@@ -24450,16 +24454,16 @@
     </row>
     <row r="263" spans="1:46">
       <c r="A263" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B263">
         <v>4</v>
       </c>
       <c r="C263" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D263" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E263">
         <v>7</v>
@@ -24591,16 +24595,16 @@
     </row>
     <row r="264" spans="1:46">
       <c r="A264" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B264">
         <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D264" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E264">
         <v>8</v>
@@ -24732,16 +24736,16 @@
     </row>
     <row r="265" spans="1:46">
       <c r="A265" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B265">
         <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D265" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E265">
         <v>9</v>
@@ -24873,16 +24877,16 @@
     </row>
     <row r="266" spans="1:46">
       <c r="A266" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B266">
         <v>4</v>
       </c>
       <c r="C266" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D266" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E266">
         <v>10</v>
@@ -24894,16 +24898,16 @@
     </row>
     <row r="267" spans="1:46">
       <c r="A267" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B267">
         <v>4</v>
       </c>
       <c r="C267" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D267" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E267">
         <v>11</v>
@@ -24915,16 +24919,16 @@
     </row>
     <row r="268" spans="1:46">
       <c r="A268" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B268">
         <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D268" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E268">
         <v>12</v>
@@ -24936,16 +24940,16 @@
     </row>
     <row r="269" spans="1:46">
       <c r="A269" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B269">
         <v>4</v>
       </c>
       <c r="C269" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D269" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E269">
         <v>13</v>
@@ -24957,16 +24961,16 @@
     </row>
     <row r="270" spans="1:46">
       <c r="A270" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B270">
         <v>4</v>
       </c>
       <c r="C270" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D270" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E270">
         <v>14</v>
@@ -24978,16 +24982,16 @@
     </row>
     <row r="271" spans="1:46">
       <c r="A271" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B271">
         <v>4</v>
       </c>
       <c r="C271" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D271" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E271">
         <v>15</v>
@@ -24999,16 +25003,16 @@
     </row>
     <row r="272" spans="1:46">
       <c r="A272" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B272">
         <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D272" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -25020,16 +25024,16 @@
     </row>
     <row r="273" spans="1:46">
       <c r="A273" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B273">
         <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D273" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E273">
         <v>2</v>
@@ -25041,16 +25045,16 @@
     </row>
     <row r="274" spans="1:46">
       <c r="A274" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B274">
         <v>5</v>
       </c>
       <c r="C274" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D274" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E274">
         <v>3</v>
@@ -25062,16 +25066,16 @@
     </row>
     <row r="275" spans="1:46">
       <c r="A275" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B275">
         <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D275" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E275">
         <v>4</v>
@@ -25083,16 +25087,16 @@
     </row>
     <row r="276" spans="1:46">
       <c r="A276" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B276">
         <v>5</v>
       </c>
       <c r="C276" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D276" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E276">
         <v>5</v>
@@ -25104,16 +25108,16 @@
     </row>
     <row r="277" spans="1:46">
       <c r="A277" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B277">
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D277" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E277">
         <v>6</v>
@@ -25125,16 +25129,16 @@
     </row>
     <row r="278" spans="1:46">
       <c r="A278" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B278">
         <v>5</v>
       </c>
       <c r="C278" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D278" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E278">
         <v>7</v>
@@ -25146,16 +25150,16 @@
     </row>
     <row r="279" spans="1:46">
       <c r="A279" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B279">
         <v>5</v>
       </c>
       <c r="C279" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D279" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E279">
         <v>8</v>
@@ -25167,16 +25171,16 @@
     </row>
     <row r="280" spans="1:46">
       <c r="A280" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B280">
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D280" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E280">
         <v>9</v>
@@ -25188,16 +25192,16 @@
     </row>
     <row r="281" spans="1:46">
       <c r="A281" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B281">
         <v>5</v>
       </c>
       <c r="C281" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D281" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E281">
         <v>10</v>
@@ -25209,16 +25213,16 @@
     </row>
     <row r="282" spans="1:46">
       <c r="A282" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B282">
         <v>5</v>
       </c>
       <c r="C282" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D282" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E282">
         <v>11</v>
@@ -25230,16 +25234,16 @@
     </row>
     <row r="283" spans="1:46">
       <c r="A283" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B283">
         <v>5</v>
       </c>
       <c r="C283" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D283" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E283">
         <v>12</v>
@@ -25251,16 +25255,16 @@
     </row>
     <row r="284" spans="1:46">
       <c r="A284" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B284">
         <v>5</v>
       </c>
       <c r="C284" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D284" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E284">
         <v>13</v>
@@ -25272,16 +25276,16 @@
     </row>
     <row r="285" spans="1:46">
       <c r="A285" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B285">
         <v>5</v>
       </c>
       <c r="C285" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D285" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E285">
         <v>14</v>
@@ -25293,16 +25297,16 @@
     </row>
     <row r="286" spans="1:46">
       <c r="A286" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B286">
         <v>5</v>
       </c>
       <c r="C286" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D286" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E286">
         <v>15</v>
@@ -25314,16 +25318,16 @@
     </row>
     <row r="287" spans="1:46">
       <c r="A287" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B287">
         <v>5</v>
       </c>
       <c r="C287" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D287" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -25335,16 +25339,16 @@
     </row>
     <row r="288" spans="1:46">
       <c r="A288" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B288">
         <v>5</v>
       </c>
       <c r="C288" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D288" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E288">
         <v>2</v>
@@ -25356,16 +25360,16 @@
     </row>
     <row r="289" spans="1:46">
       <c r="A289" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B289">
         <v>5</v>
       </c>
       <c r="C289" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D289" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E289">
         <v>3</v>
@@ -25377,16 +25381,16 @@
     </row>
     <row r="290" spans="1:46">
       <c r="A290" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B290">
         <v>5</v>
       </c>
       <c r="C290" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D290" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E290">
         <v>4</v>
@@ -25398,16 +25402,16 @@
     </row>
     <row r="291" spans="1:46">
       <c r="A291" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B291">
         <v>5</v>
       </c>
       <c r="C291" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D291" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E291">
         <v>5</v>
@@ -25419,16 +25423,16 @@
     </row>
     <row r="292" spans="1:46">
       <c r="A292" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B292">
         <v>5</v>
       </c>
       <c r="C292" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D292" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E292">
         <v>6</v>
@@ -25440,16 +25444,16 @@
     </row>
     <row r="293" spans="1:46">
       <c r="A293" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B293">
         <v>5</v>
       </c>
       <c r="C293" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D293" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E293">
         <v>7</v>
@@ -25461,16 +25465,16 @@
     </row>
     <row r="294" spans="1:46">
       <c r="A294" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B294">
         <v>5</v>
       </c>
       <c r="C294" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D294" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E294">
         <v>8</v>
@@ -25482,16 +25486,16 @@
     </row>
     <row r="295" spans="1:46">
       <c r="A295" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B295">
         <v>5</v>
       </c>
       <c r="C295" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D295" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E295">
         <v>9</v>
@@ -25503,16 +25507,16 @@
     </row>
     <row r="296" spans="1:46">
       <c r="A296" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B296">
         <v>5</v>
       </c>
       <c r="C296" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D296" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E296">
         <v>10</v>
@@ -25524,16 +25528,16 @@
     </row>
     <row r="297" spans="1:46">
       <c r="A297" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B297">
         <v>5</v>
       </c>
       <c r="C297" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D297" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E297">
         <v>11</v>
@@ -25545,16 +25549,16 @@
     </row>
     <row r="298" spans="1:46">
       <c r="A298" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B298">
         <v>5</v>
       </c>
       <c r="C298" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D298" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E298">
         <v>12</v>
@@ -25566,16 +25570,16 @@
     </row>
     <row r="299" spans="1:46">
       <c r="A299" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B299">
         <v>5</v>
       </c>
       <c r="C299" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D299" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E299">
         <v>13</v>
@@ -25587,16 +25591,16 @@
     </row>
     <row r="300" spans="1:46">
       <c r="A300" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B300">
         <v>5</v>
       </c>
       <c r="C300" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D300" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E300">
         <v>14</v>
@@ -25608,16 +25612,16 @@
     </row>
     <row r="301" spans="1:46">
       <c r="A301" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B301">
         <v>5</v>
       </c>
       <c r="C301" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D301" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E301">
         <v>15</v>
@@ -25629,16 +25633,16 @@
     </row>
     <row r="302" spans="1:46">
       <c r="A302" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B302">
         <v>1</v>
       </c>
       <c r="C302" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D302" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -25650,16 +25654,16 @@
     </row>
     <row r="303" spans="1:46">
       <c r="A303" t="s">
+        <v>112</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303" t="s">
         <v>111</v>
       </c>
-      <c r="B303">
-        <v>1</v>
-      </c>
-      <c r="C303" t="s">
-        <v>110</v>
-      </c>
       <c r="D303" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E303">
         <v>2</v>
@@ -25671,16 +25675,16 @@
     </row>
     <row r="304" spans="1:46">
       <c r="A304" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B304">
         <v>1</v>
       </c>
       <c r="C304" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D304" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E304">
         <v>3</v>
@@ -25692,16 +25696,16 @@
     </row>
     <row r="305" spans="1:46">
       <c r="A305" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B305">
         <v>1</v>
       </c>
       <c r="C305" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D305" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E305">
         <v>4</v>
@@ -25833,16 +25837,16 @@
     </row>
     <row r="306" spans="1:46">
       <c r="A306" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B306">
         <v>1</v>
       </c>
       <c r="C306" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D306" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E306">
         <v>5</v>
@@ -25974,16 +25978,16 @@
     </row>
     <row r="307" spans="1:46">
       <c r="A307" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B307">
         <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D307" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E307">
         <v>6</v>
@@ -26115,16 +26119,16 @@
     </row>
     <row r="308" spans="1:46">
       <c r="A308" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B308">
         <v>1</v>
       </c>
       <c r="C308" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D308" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E308">
         <v>7</v>
@@ -26256,16 +26260,16 @@
     </row>
     <row r="309" spans="1:46">
       <c r="A309" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B309">
         <v>1</v>
       </c>
       <c r="C309" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D309" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E309">
         <v>8</v>
@@ -26397,16 +26401,16 @@
     </row>
     <row r="310" spans="1:46">
       <c r="A310" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B310">
         <v>1</v>
       </c>
       <c r="C310" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D310" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E310">
         <v>9</v>
@@ -26538,16 +26542,16 @@
     </row>
     <row r="311" spans="1:46">
       <c r="A311" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B311">
         <v>1</v>
       </c>
       <c r="C311" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D311" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E311">
         <v>10</v>
@@ -26679,16 +26683,16 @@
     </row>
     <row r="312" spans="1:46">
       <c r="A312" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B312">
         <v>1</v>
       </c>
       <c r="C312" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D312" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E312">
         <v>11</v>
@@ -26820,16 +26824,16 @@
     </row>
     <row r="313" spans="1:46">
       <c r="A313" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B313">
         <v>1</v>
       </c>
       <c r="C313" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D313" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E313">
         <v>12</v>
@@ -26961,16 +26965,16 @@
     </row>
     <row r="314" spans="1:46">
       <c r="A314" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B314">
         <v>1</v>
       </c>
       <c r="C314" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D314" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E314">
         <v>13</v>
@@ -27102,16 +27106,16 @@
     </row>
     <row r="315" spans="1:46">
       <c r="A315" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B315">
         <v>1</v>
       </c>
       <c r="C315" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D315" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E315">
         <v>14</v>
@@ -27243,16 +27247,16 @@
     </row>
     <row r="316" spans="1:46">
       <c r="A316" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B316">
         <v>1</v>
       </c>
       <c r="C316" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D316" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E316">
         <v>15</v>
@@ -27384,16 +27388,16 @@
     </row>
     <row r="317" spans="1:46">
       <c r="A317" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B317">
         <v>1</v>
       </c>
       <c r="C317" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D317" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E317">
         <v>1</v>
@@ -27405,16 +27409,16 @@
     </row>
     <row r="318" spans="1:46">
       <c r="A318" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B318">
         <v>1</v>
       </c>
       <c r="C318" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D318" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E318">
         <v>2</v>
@@ -27426,16 +27430,16 @@
     </row>
     <row r="319" spans="1:46">
       <c r="A319" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B319">
         <v>1</v>
       </c>
       <c r="C319" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D319" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E319">
         <v>3</v>
@@ -27447,16 +27451,16 @@
     </row>
     <row r="320" spans="1:46">
       <c r="A320" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B320">
         <v>1</v>
       </c>
       <c r="C320" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D320" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E320">
         <v>4</v>
@@ -27468,16 +27472,16 @@
     </row>
     <row r="321" spans="1:46">
       <c r="A321" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B321">
         <v>1</v>
       </c>
       <c r="C321" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D321" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E321">
         <v>5</v>
@@ -27489,16 +27493,16 @@
     </row>
     <row r="322" spans="1:46">
       <c r="A322" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B322">
         <v>1</v>
       </c>
       <c r="C322" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D322" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E322">
         <v>6</v>
@@ -27510,16 +27514,16 @@
     </row>
     <row r="323" spans="1:46">
       <c r="A323" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B323">
         <v>1</v>
       </c>
       <c r="C323" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D323" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E323">
         <v>7</v>
@@ -27531,16 +27535,16 @@
     </row>
     <row r="324" spans="1:46">
       <c r="A324" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B324">
         <v>1</v>
       </c>
       <c r="C324" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D324" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E324">
         <v>8</v>
@@ -27552,16 +27556,16 @@
     </row>
     <row r="325" spans="1:46">
       <c r="A325" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B325">
         <v>1</v>
       </c>
       <c r="C325" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D325" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E325">
         <v>9</v>
@@ -27573,16 +27577,16 @@
     </row>
     <row r="326" spans="1:46">
       <c r="A326" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B326">
         <v>1</v>
       </c>
       <c r="C326" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D326" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E326">
         <v>10</v>
@@ -27594,16 +27598,16 @@
     </row>
     <row r="327" spans="1:46">
       <c r="A327" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B327">
         <v>1</v>
       </c>
       <c r="C327" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D327" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E327">
         <v>11</v>
@@ -27615,16 +27619,16 @@
     </row>
     <row r="328" spans="1:46">
       <c r="A328" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B328">
         <v>1</v>
       </c>
       <c r="C328" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D328" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E328">
         <v>12</v>
@@ -27636,16 +27640,16 @@
     </row>
     <row r="329" spans="1:46">
       <c r="A329" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B329">
         <v>1</v>
       </c>
       <c r="C329" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D329" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E329">
         <v>13</v>
@@ -27777,16 +27781,16 @@
     </row>
     <row r="330" spans="1:46">
       <c r="A330" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B330">
         <v>1</v>
       </c>
       <c r="C330" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D330" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E330">
         <v>14</v>
@@ -27918,16 +27922,16 @@
     </row>
     <row r="331" spans="1:46">
       <c r="A331" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B331">
         <v>1</v>
       </c>
       <c r="C331" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D331" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E331">
         <v>15</v>
@@ -28059,16 +28063,16 @@
     </row>
     <row r="332" spans="1:46">
       <c r="A332" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B332">
         <v>2</v>
       </c>
       <c r="C332" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D332" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -28200,16 +28204,16 @@
     </row>
     <row r="333" spans="1:46">
       <c r="A333" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B333">
         <v>2</v>
       </c>
       <c r="C333" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D333" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E333">
         <v>2</v>
@@ -28341,16 +28345,16 @@
     </row>
     <row r="334" spans="1:46">
       <c r="A334" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B334">
         <v>2</v>
       </c>
       <c r="C334" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D334" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E334">
         <v>3</v>
@@ -28482,16 +28486,16 @@
     </row>
     <row r="335" spans="1:46">
       <c r="A335" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B335">
         <v>2</v>
       </c>
       <c r="C335" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D335" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E335">
         <v>4</v>
@@ -28623,16 +28627,16 @@
     </row>
     <row r="336" spans="1:46">
       <c r="A336" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B336">
         <v>2</v>
       </c>
       <c r="C336" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D336" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E336">
         <v>5</v>
@@ -28764,16 +28768,16 @@
     </row>
     <row r="337" spans="1:46">
       <c r="A337" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B337">
         <v>2</v>
       </c>
       <c r="C337" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D337" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E337">
         <v>6</v>
@@ -28785,16 +28789,16 @@
     </row>
     <row r="338" spans="1:46">
       <c r="A338" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B338">
         <v>2</v>
       </c>
       <c r="C338" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D338" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E338">
         <v>7</v>
@@ -28926,16 +28930,16 @@
     </row>
     <row r="339" spans="1:46">
       <c r="A339" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B339">
         <v>2</v>
       </c>
       <c r="C339" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D339" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E339">
         <v>8</v>
@@ -29067,16 +29071,16 @@
     </row>
     <row r="340" spans="1:46">
       <c r="A340" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B340">
         <v>2</v>
       </c>
       <c r="C340" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D340" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E340">
         <v>9</v>
@@ -29208,16 +29212,16 @@
     </row>
     <row r="341" spans="1:46">
       <c r="A341" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B341">
         <v>2</v>
       </c>
       <c r="C341" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D341" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E341">
         <v>10</v>
@@ -29349,16 +29353,16 @@
     </row>
     <row r="342" spans="1:46">
       <c r="A342" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B342">
         <v>2</v>
       </c>
       <c r="C342" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D342" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E342">
         <v>11</v>
@@ -29490,16 +29494,16 @@
     </row>
     <row r="343" spans="1:46">
       <c r="A343" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B343">
         <v>2</v>
       </c>
       <c r="C343" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D343" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E343">
         <v>12</v>
@@ -29631,16 +29635,16 @@
     </row>
     <row r="344" spans="1:46">
       <c r="A344" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B344">
         <v>2</v>
       </c>
       <c r="C344" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D344" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E344">
         <v>13</v>
@@ -29772,16 +29776,16 @@
     </row>
     <row r="345" spans="1:46">
       <c r="A345" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B345">
         <v>2</v>
       </c>
       <c r="C345" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D345" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E345">
         <v>14</v>
@@ -29913,16 +29917,16 @@
     </row>
     <row r="346" spans="1:46">
       <c r="A346" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B346">
         <v>2</v>
       </c>
       <c r="C346" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D346" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E346">
         <v>15</v>
@@ -30054,16 +30058,16 @@
     </row>
     <row r="347" spans="1:46">
       <c r="A347" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B347">
         <v>2</v>
       </c>
       <c r="C347" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D347" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E347">
         <v>1</v>
@@ -30075,16 +30079,16 @@
     </row>
     <row r="348" spans="1:46">
       <c r="A348" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B348">
         <v>2</v>
       </c>
       <c r="C348" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D348" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E348">
         <v>2</v>
@@ -30216,16 +30220,16 @@
     </row>
     <row r="349" spans="1:46">
       <c r="A349" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B349">
         <v>2</v>
       </c>
       <c r="C349" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D349" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E349">
         <v>3</v>
@@ -30357,16 +30361,16 @@
     </row>
     <row r="350" spans="1:46">
       <c r="A350" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B350">
         <v>2</v>
       </c>
       <c r="C350" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D350" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E350">
         <v>4</v>
@@ -30378,16 +30382,16 @@
     </row>
     <row r="351" spans="1:46">
       <c r="A351" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B351">
         <v>2</v>
       </c>
       <c r="C351" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D351" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E351">
         <v>5</v>
@@ -30399,16 +30403,16 @@
     </row>
     <row r="352" spans="1:46">
       <c r="A352" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B352">
         <v>2</v>
       </c>
       <c r="C352" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D352" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E352">
         <v>6</v>
@@ -30420,16 +30424,16 @@
     </row>
     <row r="353" spans="1:46">
       <c r="A353" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B353">
         <v>2</v>
       </c>
       <c r="C353" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D353" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E353">
         <v>7</v>
@@ -30441,16 +30445,16 @@
     </row>
     <row r="354" spans="1:46">
       <c r="A354" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B354">
         <v>2</v>
       </c>
       <c r="C354" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D354" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E354">
         <v>8</v>
@@ -30462,16 +30466,16 @@
     </row>
     <row r="355" spans="1:46">
       <c r="A355" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B355">
         <v>2</v>
       </c>
       <c r="C355" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D355" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E355">
         <v>9</v>
@@ -30483,16 +30487,16 @@
     </row>
     <row r="356" spans="1:46">
       <c r="A356" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B356">
         <v>2</v>
       </c>
       <c r="C356" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D356" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E356">
         <v>10</v>
@@ -30504,16 +30508,16 @@
     </row>
     <row r="357" spans="1:46">
       <c r="A357" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B357">
         <v>2</v>
       </c>
       <c r="C357" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D357" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E357">
         <v>11</v>
@@ -30525,16 +30529,16 @@
     </row>
     <row r="358" spans="1:46">
       <c r="A358" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B358">
         <v>2</v>
       </c>
       <c r="C358" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D358" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E358">
         <v>12</v>
@@ -30546,16 +30550,16 @@
     </row>
     <row r="359" spans="1:46">
       <c r="A359" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B359">
         <v>2</v>
       </c>
       <c r="C359" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D359" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E359">
         <v>13</v>
@@ -30567,16 +30571,16 @@
     </row>
     <row r="360" spans="1:46">
       <c r="A360" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B360">
         <v>2</v>
       </c>
       <c r="C360" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D360" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E360">
         <v>14</v>
@@ -30588,16 +30592,16 @@
     </row>
     <row r="361" spans="1:46">
       <c r="A361" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B361">
         <v>2</v>
       </c>
       <c r="C361" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D361" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E361">
         <v>15</v>
@@ -30609,16 +30613,16 @@
     </row>
     <row r="362" spans="1:46">
       <c r="A362" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B362">
         <v>3</v>
       </c>
       <c r="C362" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D362" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E362">
         <v>1</v>
@@ -30750,16 +30754,16 @@
     </row>
     <row r="363" spans="1:46">
       <c r="A363" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B363">
         <v>3</v>
       </c>
       <c r="C363" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D363" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E363">
         <v>2</v>
@@ -30891,16 +30895,16 @@
     </row>
     <row r="364" spans="1:46">
       <c r="A364" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B364">
         <v>3</v>
       </c>
       <c r="C364" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D364" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E364">
         <v>3</v>
@@ -31032,16 +31036,16 @@
     </row>
     <row r="365" spans="1:46">
       <c r="A365" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B365">
         <v>3</v>
       </c>
       <c r="C365" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D365" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E365">
         <v>4</v>
@@ -31173,16 +31177,16 @@
     </row>
     <row r="366" spans="1:46">
       <c r="A366" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B366">
         <v>3</v>
       </c>
       <c r="C366" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D366" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E366">
         <v>5</v>
@@ -31314,16 +31318,16 @@
     </row>
     <row r="367" spans="1:46">
       <c r="A367" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B367">
         <v>3</v>
       </c>
       <c r="C367" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D367" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E367">
         <v>6</v>
@@ -31455,16 +31459,16 @@
     </row>
     <row r="368" spans="1:46">
       <c r="A368" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B368">
         <v>3</v>
       </c>
       <c r="C368" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D368" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E368">
         <v>7</v>
@@ -31596,16 +31600,16 @@
     </row>
     <row r="369" spans="1:46">
       <c r="A369" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B369">
         <v>3</v>
       </c>
       <c r="C369" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D369" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E369">
         <v>8</v>
@@ -31737,16 +31741,16 @@
     </row>
     <row r="370" spans="1:46">
       <c r="A370" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B370">
         <v>3</v>
       </c>
       <c r="C370" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D370" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E370">
         <v>9</v>
@@ -31878,16 +31882,16 @@
     </row>
     <row r="371" spans="1:46">
       <c r="A371" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B371">
         <v>3</v>
       </c>
       <c r="C371" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D371" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E371">
         <v>10</v>
@@ -32019,16 +32023,16 @@
     </row>
     <row r="372" spans="1:46">
       <c r="A372" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B372">
         <v>3</v>
       </c>
       <c r="C372" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D372" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E372">
         <v>11</v>
@@ -32160,16 +32164,16 @@
     </row>
     <row r="373" spans="1:46">
       <c r="A373" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B373">
         <v>3</v>
       </c>
       <c r="C373" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D373" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E373">
         <v>12</v>
@@ -32301,16 +32305,16 @@
     </row>
     <row r="374" spans="1:46">
       <c r="A374" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B374">
         <v>3</v>
       </c>
       <c r="C374" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D374" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E374">
         <v>13</v>
@@ -32442,16 +32446,16 @@
     </row>
     <row r="375" spans="1:46">
       <c r="A375" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B375">
         <v>3</v>
       </c>
       <c r="C375" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D375" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E375">
         <v>14</v>
@@ -32583,16 +32587,16 @@
     </row>
     <row r="376" spans="1:46">
       <c r="A376" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B376">
         <v>3</v>
       </c>
       <c r="C376" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D376" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E376">
         <v>15</v>
@@ -32724,16 +32728,16 @@
     </row>
     <row r="377" spans="1:46">
       <c r="A377" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B377">
         <v>3</v>
       </c>
       <c r="C377" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D377" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E377">
         <v>1</v>
@@ -32865,16 +32869,16 @@
     </row>
     <row r="378" spans="1:46">
       <c r="A378" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B378">
         <v>3</v>
       </c>
       <c r="C378" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D378" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E378">
         <v>2</v>
@@ -33006,16 +33010,16 @@
     </row>
     <row r="379" spans="1:46">
       <c r="A379" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B379">
         <v>3</v>
       </c>
       <c r="C379" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D379" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E379">
         <v>3</v>
@@ -33147,16 +33151,16 @@
     </row>
     <row r="380" spans="1:46">
       <c r="A380" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B380">
         <v>3</v>
       </c>
       <c r="C380" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D380" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E380">
         <v>4</v>
@@ -33288,16 +33292,16 @@
     </row>
     <row r="381" spans="1:46">
       <c r="A381" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B381">
         <v>3</v>
       </c>
       <c r="C381" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D381" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E381">
         <v>5</v>
@@ -33429,16 +33433,16 @@
     </row>
     <row r="382" spans="1:46">
       <c r="A382" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B382">
         <v>3</v>
       </c>
       <c r="C382" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D382" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E382">
         <v>6</v>
@@ -33570,16 +33574,16 @@
     </row>
     <row r="383" spans="1:46">
       <c r="A383" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B383">
         <v>3</v>
       </c>
       <c r="C383" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D383" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E383">
         <v>7</v>
@@ -33711,16 +33715,16 @@
     </row>
     <row r="384" spans="1:46">
       <c r="A384" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B384">
         <v>3</v>
       </c>
       <c r="C384" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D384" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E384">
         <v>8</v>
@@ -33852,16 +33856,16 @@
     </row>
     <row r="385" spans="1:46">
       <c r="A385" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B385">
         <v>3</v>
       </c>
       <c r="C385" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D385" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E385">
         <v>9</v>
@@ -33993,16 +33997,16 @@
     </row>
     <row r="386" spans="1:46">
       <c r="A386" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B386">
         <v>3</v>
       </c>
       <c r="C386" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D386" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E386">
         <v>10</v>
@@ -34134,16 +34138,16 @@
     </row>
     <row r="387" spans="1:46">
       <c r="A387" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B387">
         <v>3</v>
       </c>
       <c r="C387" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D387" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E387">
         <v>11</v>
@@ -34275,16 +34279,16 @@
     </row>
     <row r="388" spans="1:46">
       <c r="A388" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B388">
         <v>3</v>
       </c>
       <c r="C388" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D388" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E388">
         <v>12</v>
@@ -34416,16 +34420,16 @@
     </row>
     <row r="389" spans="1:46">
       <c r="A389" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B389">
         <v>3</v>
       </c>
       <c r="C389" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D389" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E389">
         <v>13</v>
@@ -34557,16 +34561,16 @@
     </row>
     <row r="390" spans="1:46">
       <c r="A390" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B390">
         <v>3</v>
       </c>
       <c r="C390" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D390" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E390">
         <v>14</v>
@@ -34698,16 +34702,16 @@
     </row>
     <row r="391" spans="1:46">
       <c r="A391" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B391">
         <v>3</v>
       </c>
       <c r="C391" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D391" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E391">
         <v>15</v>
@@ -34839,16 +34843,16 @@
     </row>
     <row r="392" spans="1:46">
       <c r="A392" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B392">
         <v>4</v>
       </c>
       <c r="C392" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D392" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E392">
         <v>1</v>
@@ -34980,16 +34984,16 @@
     </row>
     <row r="393" spans="1:46">
       <c r="A393" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B393">
         <v>4</v>
       </c>
       <c r="C393" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D393" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E393">
         <v>2</v>
@@ -35121,16 +35125,16 @@
     </row>
     <row r="394" spans="1:46">
       <c r="A394" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B394">
         <v>4</v>
       </c>
       <c r="C394" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D394" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E394">
         <v>3</v>
@@ -35262,16 +35266,16 @@
     </row>
     <row r="395" spans="1:46">
       <c r="A395" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B395">
         <v>4</v>
       </c>
       <c r="C395" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D395" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E395">
         <v>4</v>
@@ -35403,16 +35407,16 @@
     </row>
     <row r="396" spans="1:46">
       <c r="A396" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B396">
         <v>4</v>
       </c>
       <c r="C396" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D396" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E396">
         <v>5</v>
@@ -35544,16 +35548,16 @@
     </row>
     <row r="397" spans="1:46">
       <c r="A397" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B397">
         <v>4</v>
       </c>
       <c r="C397" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D397" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E397">
         <v>6</v>
@@ -35685,16 +35689,16 @@
     </row>
     <row r="398" spans="1:46">
       <c r="A398" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B398">
         <v>4</v>
       </c>
       <c r="C398" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D398" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E398">
         <v>7</v>
@@ -35826,16 +35830,16 @@
     </row>
     <row r="399" spans="1:46">
       <c r="A399" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B399">
         <v>4</v>
       </c>
       <c r="C399" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D399" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E399">
         <v>8</v>
@@ -35967,16 +35971,16 @@
     </row>
     <row r="400" spans="1:46">
       <c r="A400" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B400">
         <v>4</v>
       </c>
       <c r="C400" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D400" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E400">
         <v>9</v>
@@ -36108,16 +36112,16 @@
     </row>
     <row r="401" spans="1:46">
       <c r="A401" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B401">
         <v>4</v>
       </c>
       <c r="C401" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D401" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E401">
         <v>10</v>
@@ -36249,16 +36253,16 @@
     </row>
     <row r="402" spans="1:46">
       <c r="A402" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B402">
         <v>4</v>
       </c>
       <c r="C402" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D402" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E402">
         <v>11</v>
@@ -36390,16 +36394,16 @@
     </row>
     <row r="403" spans="1:46">
       <c r="A403" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B403">
         <v>4</v>
       </c>
       <c r="C403" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D403" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E403">
         <v>12</v>
@@ -36531,16 +36535,16 @@
     </row>
     <row r="404" spans="1:46">
       <c r="A404" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B404">
         <v>4</v>
       </c>
       <c r="C404" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D404" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E404">
         <v>13</v>
@@ -36672,16 +36676,16 @@
     </row>
     <row r="405" spans="1:46">
       <c r="A405" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B405">
         <v>4</v>
       </c>
       <c r="C405" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D405" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E405">
         <v>14</v>
@@ -36813,16 +36817,16 @@
     </row>
     <row r="406" spans="1:46">
       <c r="A406" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B406">
         <v>4</v>
       </c>
       <c r="C406" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D406" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E406">
         <v>15</v>
@@ -36954,16 +36958,16 @@
     </row>
     <row r="407" spans="1:46">
       <c r="A407" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B407">
         <v>4</v>
       </c>
       <c r="C407" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D407" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E407">
         <v>1</v>
@@ -36975,16 +36979,16 @@
     </row>
     <row r="408" spans="1:46">
       <c r="A408" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B408">
         <v>4</v>
       </c>
       <c r="C408" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D408" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E408">
         <v>2</v>
@@ -36996,16 +37000,16 @@
     </row>
     <row r="409" spans="1:46">
       <c r="A409" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B409">
         <v>4</v>
       </c>
       <c r="C409" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D409" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E409">
         <v>3</v>
@@ -37017,16 +37021,16 @@
     </row>
     <row r="410" spans="1:46">
       <c r="A410" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B410">
         <v>4</v>
       </c>
       <c r="C410" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D410" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E410">
         <v>4</v>
@@ -37038,16 +37042,16 @@
     </row>
     <row r="411" spans="1:46">
       <c r="A411" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B411">
         <v>4</v>
       </c>
       <c r="C411" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D411" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E411">
         <v>5</v>
@@ -37059,16 +37063,16 @@
     </row>
     <row r="412" spans="1:46">
       <c r="A412" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B412">
         <v>4</v>
       </c>
       <c r="C412" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D412" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E412">
         <v>6</v>
@@ -37080,16 +37084,16 @@
     </row>
     <row r="413" spans="1:46">
       <c r="A413" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B413">
         <v>4</v>
       </c>
       <c r="C413" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D413" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E413">
         <v>7</v>
@@ -37221,16 +37225,16 @@
     </row>
     <row r="414" spans="1:46">
       <c r="A414" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B414">
         <v>4</v>
       </c>
       <c r="C414" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D414" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E414">
         <v>8</v>
@@ -37362,16 +37366,16 @@
     </row>
     <row r="415" spans="1:46">
       <c r="A415" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B415">
         <v>4</v>
       </c>
       <c r="C415" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D415" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E415">
         <v>9</v>
@@ -37503,16 +37507,16 @@
     </row>
     <row r="416" spans="1:46">
       <c r="A416" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B416">
         <v>4</v>
       </c>
       <c r="C416" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D416" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E416">
         <v>10</v>
@@ -37524,16 +37528,16 @@
     </row>
     <row r="417" spans="1:46">
       <c r="A417" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B417">
         <v>4</v>
       </c>
       <c r="C417" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D417" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E417">
         <v>11</v>
@@ -37545,16 +37549,16 @@
     </row>
     <row r="418" spans="1:46">
       <c r="A418" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B418">
         <v>4</v>
       </c>
       <c r="C418" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D418" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E418">
         <v>12</v>
@@ -37566,16 +37570,16 @@
     </row>
     <row r="419" spans="1:46">
       <c r="A419" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B419">
         <v>4</v>
       </c>
       <c r="C419" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D419" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E419">
         <v>13</v>
@@ -37587,16 +37591,16 @@
     </row>
     <row r="420" spans="1:46">
       <c r="A420" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B420">
         <v>4</v>
       </c>
       <c r="C420" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D420" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E420">
         <v>14</v>
@@ -37608,16 +37612,16 @@
     </row>
     <row r="421" spans="1:46">
       <c r="A421" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B421">
         <v>4</v>
       </c>
       <c r="C421" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D421" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E421">
         <v>15</v>
@@ -37629,16 +37633,16 @@
     </row>
     <row r="422" spans="1:46">
       <c r="A422" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B422">
         <v>5</v>
       </c>
       <c r="C422" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D422" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E422">
         <v>1</v>
@@ -37650,16 +37654,16 @@
     </row>
     <row r="423" spans="1:46">
       <c r="A423" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B423">
         <v>5</v>
       </c>
       <c r="C423" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D423" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E423">
         <v>2</v>
@@ -37671,16 +37675,16 @@
     </row>
     <row r="424" spans="1:46">
       <c r="A424" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B424">
         <v>5</v>
       </c>
       <c r="C424" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D424" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E424">
         <v>3</v>
@@ -37692,16 +37696,16 @@
     </row>
     <row r="425" spans="1:46">
       <c r="A425" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B425">
         <v>5</v>
       </c>
       <c r="C425" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D425" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E425">
         <v>4</v>
@@ -37713,16 +37717,16 @@
     </row>
     <row r="426" spans="1:46">
       <c r="A426" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B426">
         <v>5</v>
       </c>
       <c r="C426" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D426" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E426">
         <v>5</v>
@@ -37734,16 +37738,16 @@
     </row>
     <row r="427" spans="1:46">
       <c r="A427" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B427">
         <v>5</v>
       </c>
       <c r="C427" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D427" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E427">
         <v>6</v>
@@ -37755,16 +37759,16 @@
     </row>
     <row r="428" spans="1:46">
       <c r="A428" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B428">
         <v>5</v>
       </c>
       <c r="C428" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D428" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E428">
         <v>7</v>
@@ -37776,16 +37780,16 @@
     </row>
     <row r="429" spans="1:46">
       <c r="A429" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B429">
         <v>5</v>
       </c>
       <c r="C429" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D429" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E429">
         <v>8</v>
@@ -37797,16 +37801,16 @@
     </row>
     <row r="430" spans="1:46">
       <c r="A430" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B430">
         <v>5</v>
       </c>
       <c r="C430" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D430" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E430">
         <v>9</v>
@@ -37818,16 +37822,16 @@
     </row>
     <row r="431" spans="1:46">
       <c r="A431" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B431">
         <v>5</v>
       </c>
       <c r="C431" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D431" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E431">
         <v>10</v>
@@ -37839,16 +37843,16 @@
     </row>
     <row r="432" spans="1:46">
       <c r="A432" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B432">
         <v>5</v>
       </c>
       <c r="C432" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D432" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E432">
         <v>11</v>
@@ -37860,16 +37864,16 @@
     </row>
     <row r="433" spans="1:46">
       <c r="A433" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B433">
         <v>5</v>
       </c>
       <c r="C433" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D433" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E433">
         <v>12</v>
@@ -37881,16 +37885,16 @@
     </row>
     <row r="434" spans="1:46">
       <c r="A434" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B434">
         <v>5</v>
       </c>
       <c r="C434" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D434" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E434">
         <v>13</v>
@@ -37902,16 +37906,16 @@
     </row>
     <row r="435" spans="1:46">
       <c r="A435" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B435">
         <v>5</v>
       </c>
       <c r="C435" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D435" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E435">
         <v>14</v>
@@ -37923,16 +37927,16 @@
     </row>
     <row r="436" spans="1:46">
       <c r="A436" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B436">
         <v>5</v>
       </c>
       <c r="C436" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D436" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E436">
         <v>15</v>
@@ -37944,16 +37948,16 @@
     </row>
     <row r="437" spans="1:46">
       <c r="A437" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B437">
         <v>5</v>
       </c>
       <c r="C437" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D437" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E437">
         <v>1</v>
@@ -37965,16 +37969,16 @@
     </row>
     <row r="438" spans="1:46">
       <c r="A438" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B438">
         <v>5</v>
       </c>
       <c r="C438" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D438" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E438">
         <v>2</v>
@@ -37986,16 +37990,16 @@
     </row>
     <row r="439" spans="1:46">
       <c r="A439" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B439">
         <v>5</v>
       </c>
       <c r="C439" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D439" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E439">
         <v>3</v>
@@ -38007,16 +38011,16 @@
     </row>
     <row r="440" spans="1:46">
       <c r="A440" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B440">
         <v>5</v>
       </c>
       <c r="C440" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D440" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E440">
         <v>4</v>
@@ -38028,16 +38032,16 @@
     </row>
     <row r="441" spans="1:46">
       <c r="A441" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B441">
         <v>5</v>
       </c>
       <c r="C441" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D441" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E441">
         <v>5</v>
@@ -38049,16 +38053,16 @@
     </row>
     <row r="442" spans="1:46">
       <c r="A442" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B442">
         <v>5</v>
       </c>
       <c r="C442" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D442" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E442">
         <v>6</v>
@@ -38070,16 +38074,16 @@
     </row>
     <row r="443" spans="1:46">
       <c r="A443" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B443">
         <v>5</v>
       </c>
       <c r="C443" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D443" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E443">
         <v>7</v>
@@ -38091,16 +38095,16 @@
     </row>
     <row r="444" spans="1:46">
       <c r="A444" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B444">
         <v>5</v>
       </c>
       <c r="C444" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D444" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E444">
         <v>8</v>
@@ -38112,16 +38116,16 @@
     </row>
     <row r="445" spans="1:46">
       <c r="A445" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B445">
         <v>5</v>
       </c>
       <c r="C445" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D445" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E445">
         <v>9</v>
@@ -38133,16 +38137,16 @@
     </row>
     <row r="446" spans="1:46">
       <c r="A446" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B446">
         <v>5</v>
       </c>
       <c r="C446" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D446" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E446">
         <v>10</v>
@@ -38154,16 +38158,16 @@
     </row>
     <row r="447" spans="1:46">
       <c r="A447" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B447">
         <v>5</v>
       </c>
       <c r="C447" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D447" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E447">
         <v>11</v>
@@ -38175,16 +38179,16 @@
     </row>
     <row r="448" spans="1:46">
       <c r="A448" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B448">
         <v>5</v>
       </c>
       <c r="C448" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D448" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E448">
         <v>12</v>
@@ -38196,16 +38200,16 @@
     </row>
     <row r="449" spans="1:46">
       <c r="A449" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B449">
         <v>5</v>
       </c>
       <c r="C449" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D449" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E449">
         <v>13</v>
@@ -38217,16 +38221,16 @@
     </row>
     <row r="450" spans="1:46">
       <c r="A450" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B450">
         <v>5</v>
       </c>
       <c r="C450" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D450" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E450">
         <v>14</v>
@@ -38238,16 +38242,16 @@
     </row>
     <row r="451" spans="1:46">
       <c r="A451" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B451">
         <v>5</v>
       </c>
       <c r="C451" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D451" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E451">
         <v>15</v>
